--- a/Pass - Website 2018.xlsx
+++ b/Pass - Website 2018.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="100">
   <si>
     <t>Task Name</t>
   </si>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t>Poovanesh, Pradeep, Santhosh</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -331,7 +337,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d;@"/>
+    <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -526,13 +532,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -543,6 +544,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -573,12 +585,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -932,10 +938,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="16">
+      <c r="C2" s="13">
         <v>43173</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="13">
         <v>43177</v>
       </c>
       <c r="E2" s="4">
@@ -952,10 +958,10 @@
       <c r="B3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="12">
         <v>43173</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="12">
         <v>43177</v>
       </c>
       <c r="E3" s="1">
@@ -972,10 +978,10 @@
       <c r="B4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="12">
         <v>43173</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="12">
         <v>43177</v>
       </c>
       <c r="E4" s="1">
@@ -992,10 +998,10 @@
       <c r="B5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>43173</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <v>43177</v>
       </c>
       <c r="E5" s="1">
@@ -1056,7 +1062,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,10 +1107,10 @@
       <c r="B2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="14">
         <v>43173</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="14">
         <v>43177</v>
       </c>
       <c r="E2" s="1">
@@ -1114,7 +1120,7 @@
       <c r="F2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="14">
         <v>43177</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1128,10 +1134,10 @@
       <c r="B3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="14">
         <v>43173</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="14">
         <v>43177</v>
       </c>
       <c r="E3" s="1">
@@ -1141,7 +1147,7 @@
       <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="14">
         <v>43177</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1155,10 +1161,10 @@
       <c r="B4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="14">
         <v>43173</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="14">
         <v>43177</v>
       </c>
       <c r="E4" s="1">
@@ -1168,7 +1174,7 @@
       <c r="F4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="14">
         <v>43177</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -1182,10 +1188,10 @@
       <c r="B5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="14">
         <v>43173</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="14">
         <v>43177</v>
       </c>
       <c r="E5" s="1">
@@ -1195,10 +1201,12 @@
       <c r="F5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="17">
-        <v>43177</v>
-      </c>
-      <c r="H5" s="1"/>
+      <c r="G5" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1269,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,7 +1368,7 @@
       <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B3" s="1"/>
@@ -1466,7 +1474,7 @@
       <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="1"/>
@@ -1552,7 +1560,7 @@
       <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="15" t="s">
         <v>79</v>
       </c>
       <c r="B12" s="1"/>
@@ -1618,7 +1626,7 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="16" t="s">
         <v>82</v>
       </c>
       <c r="B15" s="11">
@@ -1628,7 +1636,7 @@
         <v>69</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -1644,7 +1652,7 @@
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="15" t="s">
         <v>83</v>
       </c>
       <c r="B16" s="1"/>
@@ -1719,7 +1727,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,94 +1786,94 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="18">
         <v>8</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="18" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="18">
         <v>8</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="18">
         <v>5</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="18" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="21">
+      <c r="E6" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="18">
         <v>3</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="18" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1937,47 +1945,47 @@
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -2154,329 +2162,318 @@
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="20">
         <v>43173</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="32">
+      <c r="B30" s="20">
         <v>43173</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B10:G14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:G19"/>
     <mergeCell ref="A25:A29"/>
     <mergeCell ref="B25:G29"/>
     <mergeCell ref="B30:G30"/>
@@ -2484,6 +2481,17 @@
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="B20:G24"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:G14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:G19"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
